--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Spp1-Itgav.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Spp1-Itgav.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>463.732605</v>
+        <v>0.7476426666666667</v>
       </c>
       <c r="H2">
-        <v>1391.197815</v>
+        <v>2.242928</v>
       </c>
       <c r="I2">
-        <v>0.3632113435366598</v>
+        <v>0.001581772089386036</v>
       </c>
       <c r="J2">
-        <v>0.3632113435366598</v>
+        <v>0.001581772089386036</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>15.35884066666667</v>
+        <v>9.423852333333334</v>
       </c>
       <c r="N2">
-        <v>46.076522</v>
+        <v>28.271557</v>
       </c>
       <c r="O2">
-        <v>0.1012042817263867</v>
+        <v>0.06654336290212845</v>
       </c>
       <c r="P2">
-        <v>0.1012042817263867</v>
+        <v>0.06654336290212845</v>
       </c>
       <c r="Q2">
-        <v>7122.39519213327</v>
+        <v>7.045674088766223</v>
       </c>
       <c r="R2">
-        <v>64101.55672919944</v>
+        <v>63.411066798896</v>
       </c>
       <c r="S2">
-        <v>0.03675854313750353</v>
+        <v>0.0001052564341724729</v>
       </c>
       <c r="T2">
-        <v>0.03675854313750354</v>
+        <v>0.000105256434172473</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>463.732605</v>
+        <v>0.7476426666666667</v>
       </c>
       <c r="H3">
-        <v>1391.197815</v>
+        <v>2.242928</v>
       </c>
       <c r="I3">
-        <v>0.3632113435366598</v>
+        <v>0.001581772089386036</v>
       </c>
       <c r="J3">
-        <v>0.3632113435366598</v>
+        <v>0.001581772089386036</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>151.777694</v>
       </c>
       <c r="O3">
-        <v>0.3333704853712116</v>
+        <v>0.3572423751649123</v>
       </c>
       <c r="P3">
-        <v>0.3333704853712116</v>
+        <v>0.3572423751649123</v>
       </c>
       <c r="Q3">
-        <v>23461.42180650429</v>
+        <v>37.82515996089245</v>
       </c>
       <c r="R3">
-        <v>211152.7962585386</v>
+        <v>340.426439648032</v>
       </c>
       <c r="S3">
-        <v>0.1210839418871462</v>
+        <v>0.0005650760181818334</v>
       </c>
       <c r="T3">
-        <v>0.1210839418871462</v>
+        <v>0.0005650760181818335</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>463.732605</v>
+        <v>0.7476426666666667</v>
       </c>
       <c r="H4">
-        <v>1391.197815</v>
+        <v>2.242928</v>
       </c>
       <c r="I4">
-        <v>0.3632113435366598</v>
+        <v>0.001581772089386036</v>
       </c>
       <c r="J4">
-        <v>0.3632113435366598</v>
+        <v>0.001581772089386036</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>25.43221733333333</v>
+        <v>26.84076266666667</v>
       </c>
       <c r="N4">
-        <v>76.29665199999999</v>
+        <v>80.522288</v>
       </c>
       <c r="O4">
-        <v>0.1675809615966257</v>
+        <v>0.1895270158659356</v>
       </c>
       <c r="P4">
-        <v>0.1675809615966258</v>
+        <v>0.1895270158659356</v>
       </c>
       <c r="Q4">
-        <v>11793.74839491282</v>
+        <v>20.06729937547378</v>
       </c>
       <c r="R4">
-        <v>106143.7355542154</v>
+        <v>180.605694379264</v>
       </c>
       <c r="S4">
-        <v>0.06086730621267584</v>
+        <v>0.0002997885438813613</v>
       </c>
       <c r="T4">
-        <v>0.06086730621267585</v>
+        <v>0.0002997885438813613</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>463.732605</v>
+        <v>0.7476426666666667</v>
       </c>
       <c r="H5">
-        <v>1391.197815</v>
+        <v>2.242928</v>
       </c>
       <c r="I5">
-        <v>0.3632113435366598</v>
+        <v>0.001581772089386036</v>
       </c>
       <c r="J5">
-        <v>0.3632113435366598</v>
+        <v>0.001581772089386036</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>60.37715666666667</v>
+        <v>54.762539</v>
       </c>
       <c r="N5">
-        <v>181.13147</v>
+        <v>164.287617</v>
       </c>
       <c r="O5">
-        <v>0.397844271305776</v>
+        <v>0.3866872460670236</v>
       </c>
       <c r="P5">
-        <v>0.397844271305776</v>
+        <v>0.3866872460670236</v>
       </c>
       <c r="Q5">
-        <v>27998.85614352645</v>
+        <v>40.94281069139733</v>
       </c>
       <c r="R5">
-        <v>251989.7052917381</v>
+        <v>368.485296222576</v>
       </c>
       <c r="S5">
-        <v>0.1445015522993343</v>
+        <v>0.0006116510931503681</v>
       </c>
       <c r="T5">
-        <v>0.1445015522993343</v>
+        <v>0.0006116510931503682</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>36.739876</v>
       </c>
       <c r="I6">
-        <v>0.009591978638444227</v>
+        <v>0.02590993131491687</v>
       </c>
       <c r="J6">
-        <v>0.009591978638444226</v>
+        <v>0.02590993131491688</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>15.35884066666667</v>
+        <v>9.423852333333334</v>
       </c>
       <c r="N6">
-        <v>46.076522</v>
+        <v>28.271557</v>
       </c>
       <c r="O6">
-        <v>0.1012042817263867</v>
+        <v>0.06654336290212845</v>
       </c>
       <c r="P6">
-        <v>0.1012042817263867</v>
+        <v>0.06654336290212845</v>
       </c>
       <c r="Q6">
-        <v>188.0939671990302</v>
+        <v>115.4103887229925</v>
       </c>
       <c r="R6">
-        <v>1692.845704791272</v>
+        <v>1038.693498506932</v>
       </c>
       <c r="S6">
-        <v>0.0009707493084385924</v>
+        <v>0.001724133962257736</v>
       </c>
       <c r="T6">
-        <v>0.0009707493084385923</v>
+        <v>0.001724133962257736</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>36.739876</v>
       </c>
       <c r="I7">
-        <v>0.009591978638444227</v>
+        <v>0.02590993131491687</v>
       </c>
       <c r="J7">
-        <v>0.009591978638444226</v>
+        <v>0.02590993131491688</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>151.777694</v>
       </c>
       <c r="O7">
-        <v>0.3333704853712116</v>
+        <v>0.3572423751649123</v>
       </c>
       <c r="P7">
-        <v>0.3333704853712116</v>
+        <v>0.3572423751649123</v>
       </c>
       <c r="Q7">
-        <v>619.5881841251048</v>
+        <v>619.5881841251049</v>
       </c>
       <c r="R7">
-        <v>5576.293657125943</v>
+        <v>5576.293657125944</v>
       </c>
       <c r="S7">
-        <v>0.003197682574368445</v>
+        <v>0.009256125403300643</v>
       </c>
       <c r="T7">
-        <v>0.003197682574368445</v>
+        <v>0.009256125403300645</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>36.739876</v>
       </c>
       <c r="I8">
-        <v>0.009591978638444227</v>
+        <v>0.02590993131491687</v>
       </c>
       <c r="J8">
-        <v>0.009591978638444226</v>
+        <v>0.02590993131491688</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>25.43221733333333</v>
+        <v>26.84076266666667</v>
       </c>
       <c r="N8">
-        <v>76.29665199999999</v>
+        <v>80.522288</v>
       </c>
       <c r="O8">
-        <v>0.1675809615966257</v>
+        <v>0.1895270158659356</v>
       </c>
       <c r="P8">
-        <v>0.1675809615966258</v>
+        <v>0.1895270158659356</v>
       </c>
       <c r="Q8">
-        <v>311.458837077239</v>
+        <v>328.7087640395875</v>
       </c>
       <c r="R8">
-        <v>2803.129533695152</v>
+        <v>2958.378876356288</v>
       </c>
       <c r="S8">
-        <v>0.001607433003844777</v>
+        <v>0.004910631963407551</v>
       </c>
       <c r="T8">
-        <v>0.001607433003844777</v>
+        <v>0.004910631963407553</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>36.739876</v>
       </c>
       <c r="I9">
-        <v>0.009591978638444227</v>
+        <v>0.02590993131491687</v>
       </c>
       <c r="J9">
-        <v>0.009591978638444226</v>
+        <v>0.02590993131491688</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>60.37715666666667</v>
+        <v>54.762539</v>
       </c>
       <c r="N9">
-        <v>181.13147</v>
+        <v>164.287617</v>
       </c>
       <c r="O9">
-        <v>0.397844271305776</v>
+        <v>0.3866872460670236</v>
       </c>
       <c r="P9">
-        <v>0.397844271305776</v>
+        <v>0.3866872460670236</v>
       </c>
       <c r="Q9">
-        <v>739.4164163886355</v>
+        <v>670.6562974350546</v>
       </c>
       <c r="R9">
-        <v>6654.74774749772</v>
+        <v>6035.906676915492</v>
       </c>
       <c r="S9">
-        <v>0.003816113751792413</v>
+        <v>0.01001903998595094</v>
       </c>
       <c r="T9">
-        <v>0.003816113751792412</v>
+        <v>0.01001903998595094</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>111.00921</v>
+        <v>18.93023433333333</v>
       </c>
       <c r="H10">
-        <v>333.02763</v>
+        <v>56.79070299999999</v>
       </c>
       <c r="I10">
-        <v>0.08694623555538696</v>
+        <v>0.04005030430848061</v>
       </c>
       <c r="J10">
-        <v>0.08694623555538696</v>
+        <v>0.04005030430848062</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>15.35884066666667</v>
+        <v>9.423852333333334</v>
       </c>
       <c r="N10">
-        <v>46.076522</v>
+        <v>28.271557</v>
       </c>
       <c r="O10">
-        <v>0.1012042817263867</v>
+        <v>0.06654336290212845</v>
       </c>
       <c r="P10">
-        <v>0.1012042817263867</v>
+        <v>0.06654336290212845</v>
       </c>
       <c r="Q10">
-        <v>1704.97276892254</v>
+        <v>178.3957329927301</v>
       </c>
       <c r="R10">
-        <v>15344.75492030286</v>
+        <v>1605.561596934571</v>
       </c>
       <c r="S10">
-        <v>0.008799331318196159</v>
+        <v>0.002665081933939904</v>
       </c>
       <c r="T10">
-        <v>0.008799331318196159</v>
+        <v>0.002665081933939904</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>111.00921</v>
+        <v>18.93023433333333</v>
       </c>
       <c r="H11">
-        <v>333.02763</v>
+        <v>56.79070299999999</v>
       </c>
       <c r="I11">
-        <v>0.08694623555538696</v>
+        <v>0.04005030430848061</v>
       </c>
       <c r="J11">
-        <v>0.08694623555538696</v>
+        <v>0.04005030430848062</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>151.777694</v>
       </c>
       <c r="O11">
-        <v>0.3333704853712116</v>
+        <v>0.3572423751649123</v>
       </c>
       <c r="P11">
-        <v>0.3333704853712116</v>
+        <v>0.3572423751649123</v>
       </c>
       <c r="Q11">
-        <v>5616.24063552058</v>
+        <v>957.7291046643202</v>
       </c>
       <c r="R11">
-        <v>50546.16571968522</v>
+        <v>8619.56194197888</v>
       </c>
       <c r="S11">
-        <v>0.02898530874829904</v>
+        <v>0.01430766583723913</v>
       </c>
       <c r="T11">
-        <v>0.02898530874829904</v>
+        <v>0.01430766583723914</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>111.00921</v>
+        <v>18.93023433333333</v>
       </c>
       <c r="H12">
-        <v>333.02763</v>
+        <v>56.79070299999999</v>
       </c>
       <c r="I12">
-        <v>0.08694623555538696</v>
+        <v>0.04005030430848061</v>
       </c>
       <c r="J12">
-        <v>0.08694623555538696</v>
+        <v>0.04005030430848062</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>25.43221733333333</v>
+        <v>26.84076266666667</v>
       </c>
       <c r="N12">
-        <v>76.29665199999999</v>
+        <v>80.522288</v>
       </c>
       <c r="O12">
-        <v>0.1675809615966257</v>
+        <v>0.1895270158659356</v>
       </c>
       <c r="P12">
-        <v>0.1675809615966258</v>
+        <v>0.1895270158659356</v>
       </c>
       <c r="Q12">
-        <v>2823.21035472164</v>
+        <v>508.1019269653848</v>
       </c>
       <c r="R12">
-        <v>25408.89319249476</v>
+        <v>4572.917342688464</v>
       </c>
       <c r="S12">
-        <v>0.01457053376157848</v>
+        <v>0.007590614660108953</v>
       </c>
       <c r="T12">
-        <v>0.01457053376157848</v>
+        <v>0.007590614660108954</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>111.00921</v>
+        <v>18.93023433333333</v>
       </c>
       <c r="H13">
-        <v>333.02763</v>
+        <v>56.79070299999999</v>
       </c>
       <c r="I13">
-        <v>0.08694623555538696</v>
+        <v>0.04005030430848061</v>
       </c>
       <c r="J13">
-        <v>0.08694623555538696</v>
+        <v>0.04005030430848062</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>60.37715666666667</v>
+        <v>54.762539</v>
       </c>
       <c r="N13">
-        <v>181.13147</v>
+        <v>164.287617</v>
       </c>
       <c r="O13">
-        <v>0.397844271305776</v>
+        <v>0.3866872460670236</v>
       </c>
       <c r="P13">
-        <v>0.397844271305776</v>
+        <v>0.3866872460670236</v>
       </c>
       <c r="Q13">
-        <v>6702.420463612901</v>
+        <v>1036.667695958306</v>
       </c>
       <c r="R13">
-        <v>60321.7841725161</v>
+        <v>9330.009263624748</v>
       </c>
       <c r="S13">
-        <v>0.03459106172731327</v>
+        <v>0.01548694187719262</v>
       </c>
       <c r="T13">
-        <v>0.03459106172731327</v>
+        <v>0.01548694187719262</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>689.7685036666667</v>
+        <v>440.7369333333333</v>
       </c>
       <c r="H14">
-        <v>2069.305511</v>
+        <v>1322.2108</v>
       </c>
       <c r="I14">
-        <v>0.5402504422695089</v>
+        <v>0.9324579922872165</v>
       </c>
       <c r="J14">
-        <v>0.5402504422695089</v>
+        <v>0.9324579922872166</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>15.35884066666667</v>
+        <v>9.423852333333334</v>
       </c>
       <c r="N14">
-        <v>46.076522</v>
+        <v>28.271557</v>
       </c>
       <c r="O14">
-        <v>0.1012042817263867</v>
+        <v>0.06654336290212845</v>
       </c>
       <c r="P14">
-        <v>0.1012042817263867</v>
+        <v>0.06654336290212845</v>
       </c>
       <c r="Q14">
-        <v>10594.04454470142</v>
+        <v>4153.439777579511</v>
       </c>
       <c r="R14">
-        <v>95346.40090231276</v>
+        <v>37380.9579982156</v>
       </c>
       <c r="S14">
-        <v>0.05467565796224837</v>
+        <v>0.06204889057175834</v>
       </c>
       <c r="T14">
-        <v>0.05467565796224838</v>
+        <v>0.06204889057175834</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>689.7685036666667</v>
+        <v>440.7369333333333</v>
       </c>
       <c r="H15">
-        <v>2069.305511</v>
+        <v>1322.2108</v>
       </c>
       <c r="I15">
-        <v>0.5402504422695089</v>
+        <v>0.9324579922872165</v>
       </c>
       <c r="J15">
-        <v>0.5402504422695089</v>
+        <v>0.9324579922872166</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>151.777694</v>
       </c>
       <c r="O15">
-        <v>0.3333704853712116</v>
+        <v>0.3572423751649123</v>
       </c>
       <c r="P15">
-        <v>0.3333704853712116</v>
+        <v>0.3572423751649123</v>
       </c>
       <c r="Q15">
-        <v>34897.15762678574</v>
+        <v>22298.01180065502</v>
       </c>
       <c r="R15">
-        <v>314074.4186410717</v>
+        <v>200682.1062058952</v>
       </c>
       <c r="S15">
-        <v>0.1801035521613979</v>
+        <v>0.3331135079061907</v>
       </c>
       <c r="T15">
-        <v>0.1801035521613979</v>
+        <v>0.3331135079061908</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>689.7685036666667</v>
+        <v>440.7369333333333</v>
       </c>
       <c r="H16">
-        <v>2069.305511</v>
+        <v>1322.2108</v>
       </c>
       <c r="I16">
-        <v>0.5402504422695089</v>
+        <v>0.9324579922872165</v>
       </c>
       <c r="J16">
-        <v>0.5402504422695089</v>
+        <v>0.9324579922872166</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>25.43221733333333</v>
+        <v>26.84076266666667</v>
       </c>
       <c r="N16">
-        <v>76.29665199999999</v>
+        <v>80.522288</v>
       </c>
       <c r="O16">
-        <v>0.1675809615966257</v>
+        <v>0.1895270158659356</v>
       </c>
       <c r="P16">
-        <v>0.1675809615966258</v>
+        <v>0.1895270158659356</v>
       </c>
       <c r="Q16">
-        <v>17542.3424949388</v>
+        <v>11829.71542603449</v>
       </c>
       <c r="R16">
-        <v>157881.0824544492</v>
+        <v>106467.4388343104</v>
       </c>
       <c r="S16">
-        <v>0.09053568861852665</v>
+        <v>0.1767259806985377</v>
       </c>
       <c r="T16">
-        <v>0.09053568861852666</v>
+        <v>0.1767259806985378</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>689.7685036666667</v>
+        <v>440.7369333333333</v>
       </c>
       <c r="H17">
-        <v>2069.305511</v>
+        <v>1322.2108</v>
       </c>
       <c r="I17">
-        <v>0.5402504422695089</v>
+        <v>0.9324579922872165</v>
       </c>
       <c r="J17">
-        <v>0.5402504422695089</v>
+        <v>0.9324579922872166</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>60.37715666666667</v>
+        <v>54.762539</v>
       </c>
       <c r="N17">
-        <v>181.13147</v>
+        <v>164.287617</v>
       </c>
       <c r="O17">
-        <v>0.397844271305776</v>
+        <v>0.3866872460670236</v>
       </c>
       <c r="P17">
-        <v>0.397844271305776</v>
+        <v>0.3866872460670236</v>
       </c>
       <c r="Q17">
-        <v>41646.26100961458</v>
+        <v>24135.87350040706</v>
       </c>
       <c r="R17">
-        <v>374816.3490865312</v>
+        <v>217222.8615036636</v>
       </c>
       <c r="S17">
-        <v>0.214935543527336</v>
+        <v>0.3605696131107297</v>
       </c>
       <c r="T17">
-        <v>0.214935543527336</v>
+        <v>0.3605696131107298</v>
       </c>
     </row>
   </sheetData>
